--- a/TestData/JTPS-DEVQA/WhenTypes.xlsx
+++ b/TestData/JTPS-DEVQA/WhenTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="116">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -328,18 +322,6 @@
     <t>elm_Confirmationdialog</t>
   </si>
   <si>
-    <t>btn_yes</t>
-  </si>
-  <si>
-    <t>wnd_VATTypes</t>
-  </si>
-  <si>
-    <t>Autom</t>
-  </si>
-  <si>
-    <t>allrows,value^Autom,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>allrows,value^Autom</t>
   </si>
   <si>
@@ -365,6 +347,21 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t>Aut</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut</t>
   </si>
 </sst>
 </file>
@@ -548,7 +545,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -623,12 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -937,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:C75"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,22 +989,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>9</v>
@@ -1033,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
@@ -1063,12 +1054,12 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
       <c r="X2" s="19"/>
@@ -1081,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
@@ -1101,17 +1092,19 @@
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="M3" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1139,10 +1132,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="15"/>
@@ -1169,15 +1162,16 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="M5" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1207,10 +1201,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="15"/>
@@ -1241,13 +1235,12 @@
         <v>65</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1275,10 +1268,10 @@
       <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>37</v>
@@ -1295,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
@@ -1311,18 +1304,18 @@
         <v>21</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>37</v>
@@ -1357,13 +1350,12 @@
         <v>65</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1391,13 +1383,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>44</v>
@@ -1429,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="16"/>
@@ -1463,10 +1455,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>37</v>
@@ -1501,13 +1493,13 @@
         <v>51</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>50</v>
@@ -1539,13 +1531,13 @@
         <v>51</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>53</v>
@@ -1577,13 +1569,13 @@
         <v>51</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>54</v>
@@ -1614,13 +1606,13 @@
         <v>51</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O17" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P17" s="32" t="s">
         <v>55</v>
@@ -1652,13 +1644,13 @@
         <v>58</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P18" s="24" t="s">
         <v>55</v>
@@ -1690,13 +1682,13 @@
         <v>51</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>59</v>
@@ -1728,13 +1720,13 @@
         <v>51</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>60</v>
@@ -1766,13 +1758,13 @@
         <v>51</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>61</v>
@@ -1804,13 +1796,13 @@
         <v>63</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P22" s="24" t="s">
         <v>55</v>
@@ -1842,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="16"/>
@@ -1876,13 +1868,13 @@
         <v>64</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P24" s="24" t="s">
         <v>55</v>
@@ -1914,13 +1906,13 @@
         <v>65</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O25" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P25" s="33" t="s">
         <v>54</v>
@@ -1952,13 +1944,13 @@
         <v>68</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O26" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P26" s="33" t="s">
         <v>67</v>
@@ -1986,10 +1978,10 @@
       <c r="K27" s="11"/>
       <c r="L27" s="25"/>
       <c r="M27" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O27" s="31"/>
       <c r="P27" s="33"/>
@@ -2020,13 +2012,13 @@
         <v>65</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>54</v>
@@ -2058,13 +2050,13 @@
         <v>73</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>72</v>
@@ -2093,16 +2085,16 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>74</v>
@@ -2134,13 +2126,13 @@
         <v>73</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>76</v>
@@ -2172,13 +2164,13 @@
         <v>65</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>50</v>
@@ -2193,7 +2185,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>19</v>
@@ -2207,20 +2199,18 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="25" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>74</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P33" s="15"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
@@ -2231,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>19</v>
@@ -2240,24 +2230,24 @@
         <v>21</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="25" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -2268,7 +2258,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="5" t="s">
@@ -2284,21 +2274,25 @@
         <v>21</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="36">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
@@ -2309,7 +2303,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>19</v>
@@ -2322,20 +2316,20 @@
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
-      <c r="L36" s="25" t="s">
-        <v>65</v>
+      <c r="L36" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P36" s="35" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -2358,16 +2352,16 @@
       <c r="I37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="1" t="s">
-        <v>100</v>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>37</v>
@@ -2376,7 +2370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="22"/>
@@ -2385,7 +2379,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>19</v>
@@ -2394,27 +2388,27 @@
         <v>21</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="21" t="s">
-        <v>47</v>
+      <c r="L38" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
@@ -2422,14 +2416,14 @@
         <v>18</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>19</v>
@@ -2438,24 +2432,24 @@
         <v>21</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="10" t="s">
-        <v>107</v>
+      <c r="L39" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -2467,7 +2461,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>19</v>
@@ -2480,20 +2474,20 @@
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="25" t="s">
-        <v>65</v>
+      <c r="L40" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -2522,13 +2516,13 @@
         <v>83</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>72</v>
@@ -2543,7 +2537,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>19</v>
@@ -2557,19 +2551,19 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="25" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -2581,7 +2575,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>19</v>
@@ -2595,22 +2589,22 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="25" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="22"/>
@@ -2619,7 +2613,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>19</v>
@@ -2628,27 +2622,27 @@
         <v>21</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="25" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="22"/>
@@ -2657,7 +2651,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>19</v>
@@ -2666,24 +2660,24 @@
         <v>21</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="25" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -2695,7 +2689,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>19</v>
@@ -2706,22 +2700,22 @@
       <c r="I46" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="25" t="s">
-        <v>65</v>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O46" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="P46" s="15" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -2733,7 +2727,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>19</v>
@@ -2746,20 +2740,20 @@
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-      <c r="L47" s="10" t="s">
-        <v>65</v>
+      <c r="L47" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="P47" s="15" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="P47" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -2771,7 +2765,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>19</v>
@@ -2782,22 +2776,22 @@
       <c r="I48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="1" t="s">
-        <v>100</v>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O48" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2809,7 +2803,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>19</v>
@@ -2822,20 +2816,20 @@
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
-      <c r="L49" s="21" t="s">
-        <v>47</v>
+      <c r="L49" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2847,7 +2841,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>19</v>
@@ -2864,19 +2858,19 @@
         <v>65</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="22"/>
@@ -2885,7 +2879,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>19</v>
@@ -2894,27 +2888,27 @@
         <v>21</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="22"/>
@@ -2923,7 +2917,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>19</v>
@@ -2932,27 +2926,27 @@
         <v>21</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-      <c r="L52" s="25" t="s">
-        <v>65</v>
+      <c r="L52" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="22"/>
@@ -2961,7 +2955,7 @@
         <v>19</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>19</v>
@@ -2970,27 +2964,27 @@
         <v>21</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="10" t="s">
-        <v>51</v>
+      <c r="L53" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="22"/>
@@ -2999,7 +2993,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>19</v>
@@ -3008,24 +3002,24 @@
         <v>21</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="10" t="s">
-        <v>51</v>
+      <c r="L54" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O54" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>90</v>
+        <v>110</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3037,7 +3031,7 @@
         <v>19</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>19</v>
@@ -3050,20 +3044,20 @@
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="25" t="s">
-        <v>65</v>
+      <c r="L55" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O55" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="P55" s="15" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -3075,7 +3069,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>19</v>
@@ -3089,19 +3083,19 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="10" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -3113,7 +3107,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>19</v>
@@ -3126,20 +3120,20 @@
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="1" t="s">
-        <v>100</v>
+      <c r="L57" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -3151,7 +3145,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>19</v>
@@ -3160,25 +3154,23 @@
         <v>21</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="21" t="s">
-        <v>47</v>
+      <c r="L58" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P58" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P58" s="14"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
@@ -3189,7 +3181,7 @@
         <v>19</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>19</v>
@@ -3202,20 +3194,20 @@
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="10" t="s">
-        <v>91</v>
+      <c r="L59" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="P59" s="15" t="s">
-        <v>72</v>
+        <v>110</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -3227,7 +3219,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>19</v>
@@ -3240,20 +3232,20 @@
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="25" t="s">
-        <v>65</v>
+      <c r="L60" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O60" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -3265,7 +3257,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>19</v>
@@ -3274,22 +3266,24 @@
         <v>21</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O61" s="19"/>
-      <c r="P61" s="11" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3301,7 +3295,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>19</v>
@@ -3314,20 +3308,20 @@
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="10" t="s">
-        <v>87</v>
+      <c r="L62" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="P62" s="16" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -3339,7 +3333,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>19</v>
@@ -3352,19 +3346,19 @@
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="10" t="s">
-        <v>87</v>
+      <c r="L63" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O63" s="11"/>
-      <c r="P63" s="14" t="s">
-        <v>101</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P63" s="15"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
@@ -3375,7 +3369,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>19</v>
@@ -3392,13 +3386,13 @@
         <v>65</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P64" s="15" t="s">
         <v>44</v>
@@ -3413,7 +3407,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>19</v>
@@ -3426,20 +3420,20 @@
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="10" t="s">
-        <v>65</v>
+      <c r="L65" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="P65" s="15" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="P65" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -3451,7 +3445,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>19</v>
@@ -3460,22 +3454,24 @@
         <v>21</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="10" t="s">
-        <v>93</v>
+      <c r="L66" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O66" s="11"/>
-      <c r="P66" s="14" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -3487,7 +3483,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>19</v>
@@ -3496,24 +3492,24 @@
         <v>21</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="1" t="s">
-        <v>100</v>
+      <c r="L67" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O67" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -3525,7 +3521,7 @@
         <v>19</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>19</v>
@@ -3534,24 +3530,24 @@
         <v>21</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="21" t="s">
-        <v>47</v>
+      <c r="L68" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -3576,20 +3572,20 @@
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-      <c r="L69" s="10" t="s">
-        <v>91</v>
+      <c r="L69" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -3601,7 +3597,7 @@
         <v>19</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>19</v>
@@ -3612,22 +3608,21 @@
       <c r="I70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="25" t="s">
         <v>65</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O70" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="P70" s="15" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -3639,7 +3634,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>19</v>
@@ -3656,16 +3651,16 @@
         <v>65</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O71" s="11" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -3677,7 +3672,7 @@
         <v>19</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>19</v>
@@ -3690,20 +3685,20 @@
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="1" t="s">
-        <v>100</v>
+      <c r="L72" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O72" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P72" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -3732,10 +3727,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O73" s="11" t="s">
         <v>37</v>
@@ -3767,16 +3762,16 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P74" s="15" t="s">
         <v>72</v>
@@ -3790,7 +3785,7 @@
         <v>18</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="5" t="s">
@@ -3806,21 +3801,21 @@
         <v>21</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P75" s="15" t="s">
         <v>67</v>
@@ -3852,13 +3847,13 @@
         <v>65</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P76" s="15" t="s">
         <v>53</v>
@@ -3889,16 +3884,16 @@
         <v>65</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O77" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P77" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -3927,13 +3922,13 @@
         <v>65</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P78" s="15" t="s">
         <v>44</v>
@@ -3965,16 +3960,16 @@
         <v>65</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O79" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P79" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -3991,88 +3986,88 @@
       <c r="K80" s="11"/>
       <c r="L80" s="25"/>
       <c r="M80" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O80" s="11"/>
       <c r="P80" s="15"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="10"/>
       <c r="M81" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O81" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P81" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M82" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N82" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M83" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M84" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M85" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/JTPS-DEVQA/WhenTypes.xlsx
+++ b/TestData/JTPS-DEVQA/WhenTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="113">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>allrows,value^ZXY</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>When Types</t>
   </si>
 </sst>
 </file>
@@ -972,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,8 +1067,12 @@
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
         <v>18</v>
@@ -1107,8 +1117,12 @@
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
         <v>18</v>

--- a/TestData/JTPS-DEVQA/WhenTypes.xlsx
+++ b/TestData/JTPS-DEVQA/WhenTypes.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="3600" yWindow="4065" windowWidth="16755" windowHeight="4005"/>
   </bookViews>
   <sheets>
-    <sheet name="WhenTypes1" sheetId="2" r:id="rId1"/>
+    <sheet name="WhenTypes" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -978,12 +978,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" customWidth="1"/>
